--- a/biology/Médecine/Trapèze_(anime)/Trapèze_(anime).xlsx
+++ b/biology/Médecine/Trapèze_(anime)/Trapèze_(anime).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trap%C3%A8ze_(anime)</t>
+          <t>Trapèze_(anime)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trapèze (空中ブランコ, Kūchū Buranko?, littéralement « Trapèze volant ») est une série d'animation, produit par le studio Tōei Animation et diffusée à un rythme hebdomadaire dans la case spéciale noitaminA sur la chaîne télévisée Fuji TV du 15 octobre 2009 au 24 décembre 2009 de 00h45m à 01h15m (17h45m à 18h15m heure française). Depuis avril 2011, la plateforme de vidéo à la demande française Wakanim le diffuse en simulcast. Cet anime est, à l'origine, une adaptation d'un best-seller japonais écrit par Hideo Okuda et fut traduit en France sous le titre Un yakuza chez le psy: Et autres patients du Dr Irabu. Il a été aussi adapté en drama et film-live en 2005.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trap%C3%A8ze_(anime)</t>
+          <t>Trapèze_(anime)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On suit les mésaventures d'Ichiro Irabu (伊良部 一郎?), un docteur en psychiatrie possédant une triple personnalité au caractère excentrique, à l'Hôpital Général Irabu. Il guérit  à sa manière ses patients atteints de différents symptômes avec l'aide de son assistante Mayumi (マユミ?), une infirmière à l'attitude rebelle, qui elle se charge de faire la piqûre de vitamines au patient lors de la première consultation.
 </t>
